--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H2">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I2">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J2">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>10.01433182475211</v>
+        <v>7.195982191416666</v>
       </c>
       <c r="R2">
-        <v>90.12898642276899</v>
+        <v>64.76383972274999</v>
       </c>
       <c r="S2">
-        <v>0.002875712235927715</v>
+        <v>0.001497052055779851</v>
       </c>
       <c r="T2">
-        <v>0.002875712235927715</v>
+        <v>0.001497052055779851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H3">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I3">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J3">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>30.23849422499033</v>
+        <v>51.78691851353533</v>
       </c>
       <c r="R3">
-        <v>272.146448024913</v>
+        <v>466.082266621818</v>
       </c>
       <c r="S3">
-        <v>0.008683276064799933</v>
+        <v>0.01077374995670034</v>
       </c>
       <c r="T3">
-        <v>0.008683276064799933</v>
+        <v>0.01077374995670034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H4">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I4">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J4">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>57.86050827044055</v>
+        <v>139.317501825334</v>
       </c>
       <c r="R4">
-        <v>520.744574433965</v>
+        <v>1253.857516428006</v>
       </c>
       <c r="S4">
-        <v>0.01661520454105997</v>
+        <v>0.0289836115440232</v>
       </c>
       <c r="T4">
-        <v>0.01661520454105997</v>
+        <v>0.0289836115440232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H5">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I5">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J5">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>73.79406123266722</v>
+        <v>153.0841495070627</v>
       </c>
       <c r="R5">
-        <v>664.146551094005</v>
+        <v>1377.757345563564</v>
       </c>
       <c r="S5">
-        <v>0.02119067837367503</v>
+        <v>0.03184762477597805</v>
       </c>
       <c r="T5">
-        <v>0.02119067837367503</v>
+        <v>0.03184762477597805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>162.069607</v>
       </c>
       <c r="I6">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J6">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>185.7808046819845</v>
+        <v>77.94872806670833</v>
       </c>
       <c r="R6">
-        <v>1672.027242137861</v>
+        <v>701.5385526003749</v>
       </c>
       <c r="S6">
-        <v>0.05334875482196282</v>
+        <v>0.0162164525277566</v>
       </c>
       <c r="T6">
-        <v>0.05334875482196282</v>
+        <v>0.0162164525277566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>162.069607</v>
       </c>
       <c r="I7">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J7">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
-        <v>560.9692077113996</v>
+        <v>560.9692077113997</v>
       </c>
       <c r="R7">
-        <v>5048.722869402596</v>
+        <v>5048.722869402597</v>
       </c>
       <c r="S7">
-        <v>0.1610877333430361</v>
+        <v>0.1167040277886256</v>
       </c>
       <c r="T7">
-        <v>0.1610877333430361</v>
+        <v>0.1167040277886255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>162.069607</v>
       </c>
       <c r="I8">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J8">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>1073.398802226843</v>
+        <v>1509.122976661811</v>
       </c>
       <c r="R8">
-        <v>9660.589220041584</v>
+        <v>13582.1067899563</v>
       </c>
       <c r="S8">
-        <v>0.3082368473116072</v>
+        <v>0.3139579274294173</v>
       </c>
       <c r="T8">
-        <v>0.3082368473116072</v>
+        <v>0.3139579274294172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>162.069607</v>
       </c>
       <c r="I9">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J9">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>1368.989995185816</v>
+        <v>1658.246841617067</v>
       </c>
       <c r="R9">
-        <v>12320.90995667234</v>
+        <v>14924.22157455361</v>
       </c>
       <c r="S9">
-        <v>0.3931187171457567</v>
+        <v>0.3449816546508924</v>
       </c>
       <c r="T9">
-        <v>0.3931187171457568</v>
+        <v>0.3449816546508923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H10">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>6.917793781260889</v>
+        <v>13.16379976391666</v>
       </c>
       <c r="R10">
-        <v>62.26014403134799</v>
+        <v>118.47419787525</v>
       </c>
       <c r="S10">
-        <v>0.001986511388930237</v>
+        <v>0.002738596757778535</v>
       </c>
       <c r="T10">
-        <v>0.001986511388930237</v>
+        <v>0.002738596757778535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H11">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>20.88842979891066</v>
+        <v>94.73517409695532</v>
       </c>
       <c r="R11">
-        <v>187.995868190196</v>
+        <v>852.6165668725979</v>
       </c>
       <c r="S11">
-        <v>0.005998314636786205</v>
+        <v>0.01970870457484949</v>
       </c>
       <c r="T11">
-        <v>0.005998314636786205</v>
+        <v>0.01970870457484948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H12">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>39.96942295286444</v>
+        <v>254.857175692474</v>
       </c>
       <c r="R12">
-        <v>359.72480657578</v>
+        <v>2293.714581232266</v>
       </c>
       <c r="S12">
-        <v>0.01147760636055891</v>
+        <v>0.05302048402173055</v>
       </c>
       <c r="T12">
-        <v>0.01147760636055891</v>
+        <v>0.05302048402173054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H13">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>50.97615166171778</v>
+        <v>280.0408669082226</v>
       </c>
       <c r="R13">
-        <v>458.78536495546</v>
+        <v>2520.367802174004</v>
       </c>
       <c r="S13">
-        <v>0.01463829495960779</v>
+        <v>0.058259698864651</v>
       </c>
       <c r="T13">
-        <v>0.01463829495960779</v>
+        <v>0.058259698864651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H14">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>0.1505954982361111</v>
+        <v>0.1289939869166667</v>
       </c>
       <c r="R14">
-        <v>1.355359484125</v>
+        <v>1.16094588225</v>
       </c>
       <c r="S14">
-        <v>4.324495378541497E-05</v>
+        <v>2.683590761622182E-05</v>
       </c>
       <c r="T14">
-        <v>4.324495378541496E-05</v>
+        <v>2.683590761622181E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H15">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>0.4547264044583333</v>
+        <v>0.9283237383713334</v>
       </c>
       <c r="R15">
-        <v>4.092537640124999</v>
+        <v>8.354913645342</v>
       </c>
       <c r="S15">
-        <v>0.0001305790848739539</v>
+        <v>0.00019312846029771</v>
       </c>
       <c r="T15">
-        <v>0.0001305790848739539</v>
+        <v>0.0001931284602977099</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H16">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>0.8701061861805555</v>
+        <v>2.497382501746</v>
       </c>
       <c r="R16">
-        <v>7.830955675625</v>
+        <v>22.476442515714</v>
       </c>
       <c r="S16">
-        <v>0.0002498594064929299</v>
+        <v>0.0005195554281341879</v>
       </c>
       <c r="T16">
-        <v>0.0002498594064929299</v>
+        <v>0.0005195554281341878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H17">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>1.109714917847222</v>
+        <v>2.744161151790667</v>
       </c>
       <c r="R17">
-        <v>9.987434260624999</v>
+        <v>24.697450366116</v>
       </c>
       <c r="S17">
-        <v>0.0003186653711391044</v>
+        <v>0.0005708952557691995</v>
       </c>
       <c r="T17">
-        <v>0.0003186653711391044</v>
+        <v>0.0005708952557691993</v>
       </c>
     </row>
   </sheetData>
